--- a/Sightline Docs/SightLineSuggestedConnections.xlsx
+++ b/Sightline Docs/SightLineSuggestedConnections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsarao\Documents\PSU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimba\OneDrive\Documents\GitHub\Capstone-Sightline\Sightline Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6292C856-8FB7-450F-B156-284BF41A25A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6292C856-8FB7-450F-B156-284BF41A25A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5D295EA4-F667-4F14-96B2-050B5FB8D8CD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="7830" xr2:uid="{377A2681-7C12-421E-A841-7F94466C72DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{377A2681-7C12-421E-A841-7F94466C72DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Connector Proposal" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>New Board</t>
   </si>
@@ -51,9 +51,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>JST GH</t>
-  </si>
-  <si>
     <t>Pinout</t>
   </si>
   <si>
@@ -132,16 +129,22 @@
     <t>Auxilary Power</t>
   </si>
   <si>
-    <t>53398-0471 or similar</t>
-  </si>
-  <si>
-    <t>53048-0310</t>
-  </si>
-  <si>
-    <t>53398-0471</t>
-  </si>
-  <si>
     <t>SightLine Serial Port 1 (I've reversed the RX &amp; TX position here to mate with the corresponding TX/RX of the pixhawk)</t>
+  </si>
+  <si>
+    <t>JST GH Side Entry type 6 pin connector MANF# SM06B-GHS-TB</t>
+  </si>
+  <si>
+    <t>MOLEX 53398-0471 or similar</t>
+  </si>
+  <si>
+    <t>MOLEX 53398-0471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLEX 53398-0471 or similar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLEX 53048-0310 </t>
   </si>
 </sst>
 </file>
@@ -220,18 +223,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -552,7 +555,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,11 +565,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -584,40 +587,40 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,10 +636,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -644,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
     </row>
@@ -653,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,10 +667,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,29 +678,29 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>15</v>
+      <c r="A17" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
+      <c r="A18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>7</v>
+      <c r="A19" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,10 +716,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,30 +727,30 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C22" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>21</v>
+      <c r="A24" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>16</v>
+      <c r="A25" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>7</v>
+      <c r="A26" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,29 +782,29 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>16</v>
+      <c r="A33" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>7</v>
+      <c r="A34" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -818,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,12 +837,12 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>31</v>
+      <c r="A40" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
@@ -847,16 +850,16 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>16</v>
+      <c r="A41" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>7</v>
+      <c r="A42" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Sightline Docs/SightLineSuggestedConnections.xlsx
+++ b/Sightline Docs/SightLineSuggestedConnections.xlsx
@@ -554,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02B7EC0-6027-4124-BD18-ABF56414E9D5}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
